--- a/files/master_specs.xlsx
+++ b/files/master_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/408FFCA5E4B33580/Documents/YALS World/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hando\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C42521-72FA-43EE-BBAC-0BA223F39FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{793BF5EC-4E39-40BC-9FE7-E3BFC1ECF261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
   <sheets>
     <sheet name="master_specs" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>feed_id</t>
   </si>
@@ -190,12 +188,15 @@
   <si>
     <t>t_country_codes</t>
   </si>
+  <si>
+    <t>is_active</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,40 +225,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -301,9 +281,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
     <tableColumn id="3" xr3:uid="{7FE399AA-762B-4A89-ADDF-36E470765A3A}" name="subsystem_name"/>
@@ -313,12 +293,13 @@
     <tableColumn id="12" xr3:uid="{084AAACF-F295-4A4B-840D-9C73C87FE671}" name="residing_layer"/>
     <tableColumn id="11" xr3:uid="{10F47E66-AB19-48CB-8720-945A46AF8981}" name="feed_name"/>
     <tableColumn id="6" xr3:uid="{3CBA4955-B868-4168-B070-9278578AC795}" name="feed_type"/>
-    <tableColumn id="13" xr3:uid="{93BA7B57-40EB-45E1-A0CA-A4F6EA8347FF}" name="feed_specs" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{93BA7B57-40EB-45E1-A0CA-A4F6EA8347FF}" name="feed_specs" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{2C02A3F4-6682-425E-832E-EF4160E0E9A6}" name="load_type"/>
     <tableColumn id="5" xr3:uid="{3C75B709-D3DC-4440-8F79-AD9A22C27396}" name="target_table_name"/>
     <tableColumn id="9" xr3:uid="{5A446942-05ED-4557-BE80-1C3D680120E0}" name="suggested_feed_name">
       <calculatedColumnFormula>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="14" xr3:uid="{7575AF13-50BC-43B4-97DF-53F8A99E1653}" name="is_active"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,28 +602,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +666,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -711,7 +698,7 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
@@ -724,23 +711,31 @@
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
         <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
       </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:M2">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="2" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
-  <dataValidations count="10">
+  <conditionalFormatting sqref="N2">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(N2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
       <formula1>"YALS_WORLD"</formula1>
     </dataValidation>
@@ -768,6 +763,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/master_specs.xlsx
+++ b/files/master_specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hando\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hando\Documents\dev\standard-data-management-framework\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{793BF5EC-4E39-40BC-9FE7-E3BFC1ECF261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D24A56-163E-4E88-8C44-D3749DFF1443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
   <sheets>
     <sheet name="master_specs" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>SOURCE_TO_BRONZE</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
   </si>
   <si>
     <t>country_codes</t>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
   </si>
 </sst>
 </file>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -690,22 +690,22 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
